--- a/excel/Unique_Values_for_Dropdown.xlsx
+++ b/excel/Unique_Values_for_Dropdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GK47LX/source/office/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399238BA-6AA5-8A4C-9E30-208126B8DA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531038B0-17A5-A049-97CE-E0C4D6B8EEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="56">
   <si>
     <t>Dependent Drop-down List: Tabular dataset</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>Excel: Find Multiple Matches &amp; Dependent Drop Down List (Unsorted Tabular Data Set) - YouTube</t>
-  </si>
-  <si>
-    <t>Excel Dynamic Arrays (How they will change EVERYTHING!) - YouTube</t>
   </si>
   <si>
     <t>Rocket</t>
@@ -361,7 +358,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -380,10 +377,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2308,7 +2304,7 @@
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10:Q11"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2328,9 +2324,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="I1" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="I1" s="11"/>
     </row>
     <row r="3" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2357,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" t="str" cm="1">
         <f t="array" ref="J4:J8">_xlfn._xlws.SORT(_xlfn.UNIQUE(TableDiv2[Division]))</f>
@@ -2434,7 +2428,6 @@
         <v>9</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
       <c r="J8" t="str">
         <v>Utility</v>
       </c>
@@ -2453,7 +2446,6 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="13"/>
       <c r="L9" t="str">
         <v>Inkly</v>
       </c>
@@ -2469,7 +2461,6 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13"/>
       <c r="L10" t="str">
         <v>Kind Ape</v>
       </c>
@@ -2485,7 +2476,6 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="13"/>
       <c r="L11" t="str">
         <v>Mirrrr</v>
       </c>
@@ -2501,7 +2491,6 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="13"/>
       <c r="L12" t="str">
         <v>Pet Feed</v>
       </c>
@@ -2517,7 +2506,6 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="13"/>
       <c r="L13" t="str">
         <v>Rehire</v>
       </c>
@@ -2533,7 +2521,6 @@
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="13"/>
       <c r="L14" t="str">
         <v>Right App</v>
       </c>
@@ -2549,7 +2536,6 @@
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="13"/>
       <c r="L15" t="str">
         <v>Silvrr</v>
       </c>
@@ -2565,7 +2551,6 @@
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="13"/>
       <c r="L16" t="str">
         <v>Sleops</v>
       </c>
@@ -2581,7 +2566,6 @@
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="13"/>
       <c r="L17" t="str">
         <v>Voltage</v>
       </c>
@@ -2597,7 +2581,6 @@
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="13"/>
       <c r="L18" t="str">
         <v>WenCaL</v>
       </c>
@@ -2832,10 +2815,10 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
         <v>55</v>
-      </c>
-      <c r="B47" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2847,13 +2830,10 @@
       <formula1>_xlfn.ANCHORARRAY($J$4)</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I1" r:id="rId1" display="https://www.youtube.com/watch?v=2USJsIyIzvo" xr:uid="{0F78C154-AFE3-F941-A6B8-A05A6CDD898C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>